--- a/biology/Zoologie/Jardin_des_Tortues/Jardin_des_Tortues.xlsx
+++ b/biology/Zoologie/Jardin_des_Tortues/Jardin_des_Tortues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Jardin des Tortues est un parc animalier français situé aux Avirons, sur l'île de La Réunion. Ouvert au public le 30 novembre 2019[1], il présente plus de 200 spécimens[1] de tortues terrestres et aquatiques sur un terrain de deux hectares[2]. Avec Kélonia, un site plus ancien dédié aux tortues marines à Saint-Leu, il fait partie d'un parcours thématique baptisé Chemin des tortues[1].
+Le Jardin des Tortues est un parc animalier français situé aux Avirons, sur l'île de La Réunion. Ouvert au public le 30 novembre 2019, il présente plus de 200 spécimens de tortues terrestres et aquatiques sur un terrain de deux hectares. Avec Kélonia, un site plus ancien dédié aux tortues marines à Saint-Leu, il fait partie d'un parcours thématique baptisé Chemin des tortues.
 </t>
         </is>
       </c>
